--- a/7e. QC check for genera with type species issues.xlsx
+++ b/7e. QC check for genera with type species issues.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curtish/Box Sync/ictvonline/taxonomy/ICTV_update/2018_updates/2018b_MSL34/load_msl_protocol.2018b-Riboviria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curtish/Box Sync/ictvonline/taxonomy/ICTV_update/2018_updates/2018b_MSL34/load_msl_protocol.2018b-Consolidated.final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7230E4D8-6E92-F742-BE9D-21697DBE635A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17C11D7D-D3E7-3349-AAA7-212A2D1B9FBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="-21140" windowWidth="32840" windowHeight="19140" activeTab="1" xr2:uid="{EC0F7DCB-3D4B-4245-B086-254DA1A4172C}"/>
+    <workbookView xWindow="1880" yWindow="-21140" windowWidth="32840" windowHeight="19140" xr2:uid="{EC0F7DCB-3D4B-4245-B086-254DA1A4172C}"/>
   </bookViews>
   <sheets>
     <sheet name="type.genus" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="124">
   <si>
     <t>report</t>
   </si>
@@ -136,6 +136,9 @@
     <t>Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Deltacoronavirus;Herdecovirus</t>
   </si>
   <si>
+    <t>Negarnaviricota;Polyploviricotina;Ellioviricetes;Bunyavirales;Phenuiviridae;Laulavirus</t>
+  </si>
+  <si>
     <t>Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus;Luchacovirus</t>
   </si>
   <si>
@@ -395,186 +398,6 @@
   </si>
   <si>
     <t>type species directly in genus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Monidovirineae;Mononiviridae;Mononivirinae;Alphamononivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Arnidovirineae;Arteriviridae;Variarterivirinae;Betaarterivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Betacoronavirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Tornidovirineae;Tobaniviridae;Remotovirinae;Bostovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Arnidovirineae;Arteriviridae;Simarterivirinae;Epsilonarterivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Tornidovirineae;Tobaniviridae;Serpentovirinae;Infratovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Ronidovirineae;Roniviridae;Okanivirinae;Okavirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Tornidovirineae;Tobaniviridae;Piscanivirinae;Oncotshavirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Tornidovirineae;Tobaniviridae;Torovirinae;Torovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Mesnidovirineae;Medioniviridae;Medionivirinae;Turrinivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Mesnidovirineae;Mesoniviridae;Hexponivirinae;Alphamesonivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Arnidovirineae;Arteriviridae;Simarterivirinae;Deltaarterivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Deltacoronavirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Negarnaviricota;Polyploviricotina;Ellioviricetes;Bunyavirales;Phenuiviridae;Laulavirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Tornidovirineae;Tobaniviridae;Serpentovirinae;Tiruvirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Abnidovirineae;Abyssoviridae;Tiamatvirinae;Alphaabyssovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Letovirinae;Alphaletovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Mesnidovirineae;Medioniviridae;Tunicanivirinae;Bolenivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Ronidovirineae;Euroniviridae;Ceronivirinae;Charybnivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Gammacoronavirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Arnidovirineae;Arteriviridae;Simarterivirinae;Iotaarterivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Tornidovirineae;Tobaniviridae;Piscanivirinae;Bafinivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Ronidovirineae;Euroniviridae;Crustonivirinae;Paguronivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Tornidovirineae;Tobaniviridae;Serpentovirinae;Pregotovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Tornidovirineae;Tobaniviridae;Serpentovirinae;Sectovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Arnidovirineae;Arteriviridae;Simarterivirinae;Thetaarterivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Arnidovirineae;Arteriviridae;Variarterivirinae;Betaarterivirus;Ampobartevirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Deltacoronavirus;Andecovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Arnidovirineae;Arteriviridae;Simarterivirinae;Iotaarterivirus;Debiartevirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus;Decacovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus;Duvinacovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Mesnidovirineae;Mesoniviridae;Hexponivirinae;Alphamesonivirus;Karsalivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Mesnidovirineae;Mesoniviridae;Hexponivirinae;Alphamesonivirus;Menolivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus;Minacovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus;Myotacovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus;Pedacovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus;Setracovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Ronidovirineae;Euroniviridae;Ceronivirinae;Charybnivirus;Wenilivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Mesnidovirineae;Mesoniviridae;Hexponivirinae;Alphamesonivirus;Casualivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus;Colacovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Deltacoronavirus;Herdecovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Betacoronavirus;Hibecovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Betacoronavirus;Merbecovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Betacoronavirus;Nobecovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus;Nyctacovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Arnidovirineae;Arteriviridae;Simarterivirinae;Thetaarterivirus;Kaftartevirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus;Luchacovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Mesnidovirineae;Mesoniviridae;Hexponivirinae;Alphamesonivirus;Ofalivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Gammacoronavirus;Cegacovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Arnidovirineae;Arteriviridae;Variarterivirinae;Betaarterivirus;Chibartevirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Mesnidovirineae;Mesoniviridae;Hexponivirinae;Alphamesonivirus;Enselivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Mesnidovirineae;Mesoniviridae;Hexponivirinae;Alphamesonivirus;Hanalivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Mesnidovirineae;Mesoniviridae;Hexponivirinae;Alphamesonivirus;Kadilivirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus;Minunacovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Deltacoronavirus;Moordecovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Arnidovirineae;Arteriviridae;Simarterivirinae;Deltaarterivirus;Pedartevirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Tornidovirineae;Tobaniviridae;Piscanivirinae;Bafinivirus;Pimfabavirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Alphacoronavirus;Rhinacovirus</t>
-  </si>
-  <si>
-    <t>Riboviria;Nidovirales;Cornidovirineae;Coronaviridae;Orthocoronavirinae;Betacoronavirus;Sarbecovirus</t>
   </si>
 </sst>
 </file>
@@ -968,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87F09E-9588-AC4F-A717-2C3F0D74F04B}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="106" workbookViewId="0">
-      <selection sqref="A1:F139"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,16 +827,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1024,13 +847,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1044,16 +867,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1064,16 +887,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1084,13 +907,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1104,13 +927,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7">
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1124,16 +947,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1144,13 +967,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1164,16 +987,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1184,16 +1007,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11">
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1204,13 +1027,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12">
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1224,16 +1047,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13">
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1244,16 +1067,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14">
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1264,16 +1087,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15">
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1284,16 +1107,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16">
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1304,13 +1127,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B17">
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1324,13 +1147,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18">
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1344,13 +1167,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19">
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1364,16 +1187,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20">
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1384,16 +1207,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21">
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1404,16 +1227,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B22">
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1424,16 +1247,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23">
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1444,13 +1267,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24">
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1464,13 +1287,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25">
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1484,13 +1307,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B26">
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1504,13 +1327,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B27">
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1524,13 +1347,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B28">
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1544,13 +1367,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B29">
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1564,7 +1387,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B30">
         <v>33</v>
@@ -1584,7 +1407,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31">
         <v>33</v>
@@ -1604,7 +1427,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B32">
         <v>33</v>
@@ -1624,7 +1447,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -1644,13 +1467,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1664,13 +1487,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1684,13 +1507,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B36">
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1704,13 +1527,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B37">
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1724,7 +1547,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B38">
         <v>33</v>
@@ -1744,13 +1567,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B39">
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1764,13 +1587,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B40">
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1784,13 +1607,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B41">
         <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1804,13 +1627,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B42">
         <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1824,13 +1647,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B43">
         <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>12</v>
@@ -1844,7 +1667,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B44">
         <v>33</v>
@@ -1864,13 +1687,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B45">
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1884,13 +1707,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B46">
         <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -1904,13 +1727,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B47">
         <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1924,13 +1747,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B48">
         <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -1944,13 +1767,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B49">
         <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1964,13 +1787,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B50">
         <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1984,7 +1807,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B51">
         <v>33</v>
@@ -2004,7 +1827,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B52">
         <v>33</v>
@@ -2024,7 +1847,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B53">
         <v>33</v>
@@ -2044,13 +1867,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B54">
         <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2064,7 +1887,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B55">
         <v>33</v>
@@ -2084,13 +1907,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56">
         <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D56">
         <v>8</v>
@@ -2104,13 +1927,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B57">
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D57">
         <v>8</v>
@@ -2124,13 +1947,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B58">
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D58">
         <v>6</v>
@@ -2144,13 +1967,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B59">
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D59">
         <v>22</v>
@@ -2164,13 +1987,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B60">
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D60">
         <v>6</v>
@@ -2184,13 +2007,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B61">
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D61">
         <v>8</v>
@@ -2204,13 +2027,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B62">
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2224,13 +2047,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B63">
         <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2244,13 +2067,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B64">
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -2264,13 +2087,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B65">
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -2284,13 +2107,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B66">
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2304,13 +2127,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B67">
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -2324,13 +2147,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B68">
         <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D68">
         <v>29</v>
@@ -2344,13 +2167,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B69">
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D69">
         <v>11</v>
@@ -2364,13 +2187,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B70">
         <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -2384,13 +2207,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B71">
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -2404,13 +2227,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B72">
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -2424,13 +2247,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73">
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -2444,13 +2267,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B74">
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D74">
         <v>9</v>
@@ -2464,13 +2287,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B75">
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D75">
         <v>15</v>
@@ -2484,13 +2307,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B76">
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D76">
         <v>6</v>
@@ -2504,13 +2327,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B77">
         <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D77">
         <v>25</v>
@@ -2524,13 +2347,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B78">
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -2544,13 +2367,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B79">
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -2564,13 +2387,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B80">
         <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -2584,13 +2407,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B81">
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -2604,13 +2427,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B82">
         <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -2624,13 +2447,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B83">
         <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -2644,13 +2467,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -2664,13 +2487,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B85">
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -2684,13 +2507,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D86">
         <v>30</v>
@@ -2704,13 +2527,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87">
         <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D87">
         <v>10</v>
@@ -2724,13 +2547,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88">
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -2744,13 +2567,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B89">
         <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -2764,13 +2587,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B90">
         <v>25</v>
       </c>
       <c r="C90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -2784,13 +2607,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B91">
         <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -2804,13 +2627,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B92">
         <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D92">
         <v>10</v>
@@ -2824,13 +2647,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B93">
         <v>25</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -2844,13 +2667,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B94">
         <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -2864,13 +2687,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B95">
         <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D95">
         <v>10</v>
@@ -2884,13 +2707,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B96">
         <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -2904,13 +2727,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B97">
         <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -2924,13 +2747,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B98">
         <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D98">
         <v>8</v>
@@ -2944,13 +2767,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B99">
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D99">
         <v>8</v>
@@ -2964,13 +2787,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B100">
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -2984,13 +2807,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -3004,13 +2827,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B102">
         <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -3024,13 +2847,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B103">
         <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -3044,13 +2867,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B104">
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -3064,13 +2887,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B105">
         <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -3084,13 +2907,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B106">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -3104,13 +2927,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B107">
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3124,13 +2947,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B108">
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D108">
         <v>7</v>
@@ -3144,13 +2967,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B109">
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D109">
         <v>24</v>
@@ -3164,13 +2987,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B110">
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -3184,13 +3007,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B111">
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -3204,13 +3027,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B112">
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -3224,13 +3047,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B113">
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -3244,13 +3067,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B114">
         <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D114">
         <v>4</v>
@@ -3264,13 +3087,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B115">
         <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D115">
         <v>9</v>
@@ -3284,13 +3107,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B116">
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D116">
         <v>24</v>
@@ -3304,13 +3127,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B117">
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D117">
         <v>7</v>
@@ -3324,13 +3147,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B118">
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -3344,13 +3167,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B119">
         <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D119">
         <v>13</v>
@@ -3364,13 +3187,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B120">
         <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D120">
         <v>24</v>
@@ -3384,13 +3207,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121">
         <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D121">
         <v>7</v>
@@ -3404,13 +3227,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122">
         <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D122">
         <v>13</v>
@@ -3424,13 +3247,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D123">
         <v>7</v>
@@ -3444,13 +3267,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D124">
         <v>24</v>
@@ -3464,13 +3287,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D125">
         <v>13</v>
@@ -3484,13 +3307,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B126">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -3504,13 +3327,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B127">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D127">
         <v>24</v>
@@ -3524,13 +3347,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B128">
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D128">
         <v>8</v>
@@ -3544,13 +3367,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B129">
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D129">
         <v>13</v>
@@ -3564,13 +3387,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B130">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D130">
         <v>24</v>
@@ -3584,13 +3407,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B131">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D131">
         <v>5</v>
@@ -3604,13 +3427,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B132">
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D132">
         <v>8</v>
@@ -3624,13 +3447,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B133">
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D133">
         <v>13</v>
@@ -3644,13 +3467,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B134">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D134">
         <v>24</v>
@@ -3664,13 +3487,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D135">
         <v>13</v>
@@ -3684,13 +3507,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B136">
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D136">
         <v>24</v>
@@ -3704,13 +3527,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B137">
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D137">
         <v>5</v>
@@ -3724,13 +3547,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B138">
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D138">
         <v>13</v>
@@ -3744,13 +3567,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
         <v>122</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139" t="s">
-        <v>121</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -3771,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426AA313-2B20-CD41-AC70-3A29285ED424}">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G205"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3817,10 +3640,10 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3840,7 +3663,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3863,13 +3686,13 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3886,10 +3709,10 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3909,10 +3732,10 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3932,13 +3755,13 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3955,10 +3778,10 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3978,7 +3801,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -4001,13 +3824,13 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4024,10 +3847,10 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -4047,13 +3870,13 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4070,7 +3893,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -4093,13 +3916,13 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4116,7 +3939,7 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -4139,13 +3962,13 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -4162,7 +3985,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -4185,13 +4008,13 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -4208,13 +4031,13 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4231,13 +4054,13 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4254,10 +4077,10 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4277,7 +4100,7 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -4300,10 +4123,10 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4323,13 +4146,13 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4346,7 +4169,7 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -4369,10 +4192,10 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4392,13 +4215,13 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -4415,13 +4238,13 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4438,13 +4261,13 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4461,10 +4284,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -4484,13 +4307,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -4507,7 +4330,7 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -4530,7 +4353,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -4553,13 +4376,13 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4576,13 +4399,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4599,10 +4422,10 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4622,13 +4445,13 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4645,13 +4468,13 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4668,10 +4491,10 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4691,13 +4514,13 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4714,7 +4537,7 @@
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -4737,10 +4560,10 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4760,7 +4583,7 @@
         <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -4783,13 +4606,13 @@
         <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -4806,13 +4629,13 @@
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4829,13 +4652,13 @@
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4852,10 +4675,10 @@
         <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4875,13 +4698,13 @@
         <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48">
         <v>12</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4898,7 +4721,7 @@
         <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -4921,13 +4744,13 @@
         <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4944,13 +4767,13 @@
         <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4967,10 +4790,10 @@
         <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4990,10 +4813,10 @@
         <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -5013,13 +4836,13 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5036,10 +4859,10 @@
         <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -5059,13 +4882,13 @@
         <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5082,7 +4905,7 @@
         <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -5105,7 +4928,7 @@
         <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -5128,10 +4951,10 @@
         <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -5151,13 +4974,13 @@
         <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -5174,7 +4997,7 @@
         <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -5197,10 +5020,10 @@
         <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -5220,7 +5043,7 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -5243,7 +5066,7 @@
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -5266,7 +5089,7 @@
         <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -5289,7 +5112,7 @@
         <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -5312,7 +5135,7 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -5335,7 +5158,7 @@
         <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -5358,7 +5181,7 @@
         <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -5381,7 +5204,7 @@
         <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -5404,7 +5227,7 @@
         <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -5427,7 +5250,7 @@
         <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -5450,7 +5273,7 @@
         <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -5473,7 +5296,7 @@
         <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -5496,7 +5319,7 @@
         <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -5542,7 +5365,7 @@
         <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -5565,7 +5388,7 @@
         <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -5726,7 +5549,7 @@
         <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -5956,7 +5779,7 @@
         <v>33</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -6002,7 +5825,7 @@
         <v>33</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -6071,7 +5894,7 @@
         <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -6094,7 +5917,7 @@
         <v>33</v>
       </c>
       <c r="C101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
@@ -6140,7 +5963,7 @@
         <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -6186,7 +6009,7 @@
         <v>33</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -6209,7 +6032,7 @@
         <v>33</v>
       </c>
       <c r="C106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -6301,7 +6124,7 @@
         <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -6324,7 +6147,7 @@
         <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
@@ -6347,7 +6170,7 @@
         <v>33</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
@@ -6393,7 +6216,7 @@
         <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -6416,7 +6239,7 @@
         <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -6439,7 +6262,7 @@
         <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -6462,7 +6285,7 @@
         <v>33</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
@@ -6485,7 +6308,7 @@
         <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
@@ -6508,7 +6331,7 @@
         <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -6531,7 +6354,7 @@
         <v>33</v>
       </c>
       <c r="C120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
@@ -6554,7 +6377,7 @@
         <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -6577,7 +6400,7 @@
         <v>29</v>
       </c>
       <c r="C122" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -6600,7 +6423,7 @@
         <v>28</v>
       </c>
       <c r="C123" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -6623,7 +6446,7 @@
         <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -6646,7 +6469,7 @@
         <v>27</v>
       </c>
       <c r="C125" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -6669,7 +6492,7 @@
         <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
@@ -6692,7 +6515,7 @@
         <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
@@ -6715,7 +6538,7 @@
         <v>26</v>
       </c>
       <c r="C128" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -6738,7 +6561,7 @@
         <v>26</v>
       </c>
       <c r="C129" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
@@ -6761,7 +6584,7 @@
         <v>26</v>
       </c>
       <c r="C130" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -6784,7 +6607,7 @@
         <v>26</v>
       </c>
       <c r="C131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -6807,7 +6630,7 @@
         <v>26</v>
       </c>
       <c r="C132" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
@@ -6830,7 +6653,7 @@
         <v>26</v>
       </c>
       <c r="C133" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
@@ -6853,7 +6676,7 @@
         <v>26</v>
       </c>
       <c r="C134" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
@@ -6876,7 +6699,7 @@
         <v>26</v>
       </c>
       <c r="C135" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
@@ -6899,7 +6722,7 @@
         <v>26</v>
       </c>
       <c r="C136" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -6922,7 +6745,7 @@
         <v>26</v>
       </c>
       <c r="C137" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
@@ -6945,7 +6768,7 @@
         <v>26</v>
       </c>
       <c r="C138" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
@@ -6968,7 +6791,7 @@
         <v>26</v>
       </c>
       <c r="C139" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
@@ -6991,7 +6814,7 @@
         <v>26</v>
       </c>
       <c r="C140" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
@@ -7014,7 +6837,7 @@
         <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D141" t="s">
         <v>9</v>
@@ -7037,7 +6860,7 @@
         <v>26</v>
       </c>
       <c r="C142" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
@@ -7060,7 +6883,7 @@
         <v>26</v>
       </c>
       <c r="C143" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D143" t="s">
         <v>9</v>
@@ -7083,7 +6906,7 @@
         <v>26</v>
       </c>
       <c r="C144" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D144" t="s">
         <v>9</v>
@@ -7106,7 +6929,7 @@
         <v>26</v>
       </c>
       <c r="C145" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D145" t="s">
         <v>9</v>
@@ -7129,7 +6952,7 @@
         <v>26</v>
       </c>
       <c r="C146" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D146" t="s">
         <v>9</v>
@@ -7152,7 +6975,7 @@
         <v>26</v>
       </c>
       <c r="C147" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D147" t="s">
         <v>9</v>
@@ -7175,7 +6998,7 @@
         <v>26</v>
       </c>
       <c r="C148" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D148" t="s">
         <v>9</v>
@@ -7198,7 +7021,7 @@
         <v>26</v>
       </c>
       <c r="C149" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D149" t="s">
         <v>9</v>
@@ -7221,7 +7044,7 @@
         <v>26</v>
       </c>
       <c r="C150" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D150" t="s">
         <v>9</v>
@@ -7244,7 +7067,7 @@
         <v>25</v>
       </c>
       <c r="C151" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
@@ -7267,7 +7090,7 @@
         <v>25</v>
       </c>
       <c r="C152" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D152" t="s">
         <v>9</v>
@@ -7290,7 +7113,7 @@
         <v>25</v>
       </c>
       <c r="C153" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D153" t="s">
         <v>9</v>
@@ -7313,7 +7136,7 @@
         <v>25</v>
       </c>
       <c r="C154" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D154" t="s">
         <v>9</v>
@@ -7336,7 +7159,7 @@
         <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D155" t="s">
         <v>9</v>
@@ -7359,7 +7182,7 @@
         <v>25</v>
       </c>
       <c r="C156" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D156" t="s">
         <v>9</v>
@@ -7382,7 +7205,7 @@
         <v>25</v>
       </c>
       <c r="C157" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D157" t="s">
         <v>9</v>
@@ -7405,7 +7228,7 @@
         <v>25</v>
       </c>
       <c r="C158" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D158" t="s">
         <v>9</v>
@@ -7428,7 +7251,7 @@
         <v>25</v>
       </c>
       <c r="C159" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D159" t="s">
         <v>9</v>
@@ -7451,7 +7274,7 @@
         <v>25</v>
       </c>
       <c r="C160" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D160" t="s">
         <v>9</v>
@@ -7474,7 +7297,7 @@
         <v>25</v>
       </c>
       <c r="C161" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D161" t="s">
         <v>9</v>
@@ -7497,7 +7320,7 @@
         <v>25</v>
       </c>
       <c r="C162" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D162" t="s">
         <v>9</v>
@@ -7520,7 +7343,7 @@
         <v>25</v>
       </c>
       <c r="C163" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D163" t="s">
         <v>9</v>
@@ -7543,7 +7366,7 @@
         <v>24</v>
       </c>
       <c r="C164" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D164" t="s">
         <v>9</v>
@@ -7566,7 +7389,7 @@
         <v>23</v>
       </c>
       <c r="C165" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D165" t="s">
         <v>9</v>
@@ -7589,7 +7412,7 @@
         <v>23</v>
       </c>
       <c r="C166" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
@@ -7612,7 +7435,7 @@
         <v>22</v>
       </c>
       <c r="C167" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D167" t="s">
         <v>9</v>
@@ -7635,7 +7458,7 @@
         <v>21</v>
       </c>
       <c r="C168" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D168" t="s">
         <v>9</v>
@@ -7658,7 +7481,7 @@
         <v>20</v>
       </c>
       <c r="C169" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D169" t="s">
         <v>9</v>
@@ -7681,7 +7504,7 @@
         <v>19</v>
       </c>
       <c r="C170" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D170" t="s">
         <v>9</v>
@@ -7704,7 +7527,7 @@
         <v>18</v>
       </c>
       <c r="C171" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D171" t="s">
         <v>9</v>
@@ -7727,7 +7550,7 @@
         <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D172" t="s">
         <v>9</v>
@@ -7750,7 +7573,7 @@
         <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D173" t="s">
         <v>9</v>
@@ -7773,7 +7596,7 @@
         <v>13</v>
       </c>
       <c r="C174" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D174" t="s">
         <v>9</v>
@@ -7796,7 +7619,7 @@
         <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D175" t="s">
         <v>9</v>
@@ -7819,7 +7642,7 @@
         <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D176" t="s">
         <v>9</v>
@@ -7842,7 +7665,7 @@
         <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D177" t="s">
         <v>9</v>
@@ -7865,7 +7688,7 @@
         <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D178" t="s">
         <v>9</v>
@@ -7888,7 +7711,7 @@
         <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
@@ -7911,7 +7734,7 @@
         <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D180" t="s">
         <v>9</v>
@@ -7934,7 +7757,7 @@
         <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D181" t="s">
         <v>9</v>
@@ -7957,7 +7780,7 @@
         <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D182" t="s">
         <v>9</v>
@@ -7980,7 +7803,7 @@
         <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D183" t="s">
         <v>9</v>
@@ -8003,7 +7826,7 @@
         <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
@@ -8026,7 +7849,7 @@
         <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D185" t="s">
         <v>9</v>
@@ -8049,7 +7872,7 @@
         <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D186" t="s">
         <v>9</v>
@@ -8072,7 +7895,7 @@
         <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D187" t="s">
         <v>9</v>
@@ -8095,7 +7918,7 @@
         <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D188" t="s">
         <v>9</v>
@@ -8118,7 +7941,7 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
@@ -8141,7 +7964,7 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D190" t="s">
         <v>9</v>
@@ -8164,7 +7987,7 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D191" t="s">
         <v>9</v>
@@ -8187,7 +8010,7 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D192" t="s">
         <v>9</v>
@@ -8210,7 +8033,7 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D193" t="s">
         <v>9</v>
@@ -8233,7 +8056,7 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D194" t="s">
         <v>9</v>
@@ -8256,7 +8079,7 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D195" t="s">
         <v>9</v>
@@ -8279,7 +8102,7 @@
         <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D196" t="s">
         <v>9</v>
@@ -8302,7 +8125,7 @@
         <v>6</v>
       </c>
       <c r="C197" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D197" t="s">
         <v>9</v>
@@ -8325,7 +8148,7 @@
         <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D198" t="s">
         <v>9</v>
@@ -8348,7 +8171,7 @@
         <v>6</v>
       </c>
       <c r="C199" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D199" t="s">
         <v>9</v>
@@ -8371,7 +8194,7 @@
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
@@ -8394,7 +8217,7 @@
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D201" t="s">
         <v>9</v>
@@ -8417,7 +8240,7 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D202" t="s">
         <v>9</v>
@@ -8440,7 +8263,7 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D203" t="s">
         <v>9</v>
@@ -8463,7 +8286,7 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D204" t="s">
         <v>9</v>
@@ -8486,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D205" t="s">
         <v>9</v>
